--- a/Work-Dash/dados_estruturados.xlsx
+++ b/Work-Dash/dados_estruturados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gasc\Downloads\Projetos\Streamlit\Work-Streamlit\Work-Dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC06BD68-F26E-40DE-AEB3-ABB6D1B8EDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5366A-8D23-44BA-9E87-507D45B3ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -1774,10 +1774,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92045BDD-7D97-40B6-988B-1230836286EA}">
   <dimension ref="A1:S1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2199,7 @@
     <col min="19" max="19" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
